--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -58076,7 +58076,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6166898148</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>583280</v>
@@ -58097,6 +58097,32 @@
         <v>654</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.4586111111</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>322255</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>0.0469999983906746</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>0.0445000007748604</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>0.0469999983906746</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>0.0445000007748604</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218387603759766</t>
+    <t xml:space="preserve">0.218387618660927</t>
   </si>
   <si>
     <t xml:space="preserve">CIA.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.219950303435326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219657316803932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218973606824875</t>
+    <t xml:space="preserve">0.219657301902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218973621726036</t>
   </si>
   <si>
     <t xml:space="preserve">0.216629564762115</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.215457528829575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213797152042389</t>
+    <t xml:space="preserve">0.21379716694355</t>
   </si>
   <si>
     <t xml:space="preserve">0.204127952456474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199146836996078</t>
+    <t xml:space="preserve">0.199146822094917</t>
   </si>
   <si>
     <t xml:space="preserve">0.204909309744835</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.185570865869522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195240095257759</t>
+    <t xml:space="preserve">0.195240080356598</t>
   </si>
   <si>
     <t xml:space="preserve">0.196216776967049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194361060857773</t>
+    <t xml:space="preserve">0.194361075758934</t>
   </si>
   <si>
     <t xml:space="preserve">0.193384379148483</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.199244499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20363961160183</t>
+    <t xml:space="preserve">0.203639596700668</t>
   </si>
   <si>
     <t xml:space="preserve">0.188696280121803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179417729377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186742901802063</t>
+    <t xml:space="preserve">0.179417714476585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186742886900902</t>
   </si>
   <si>
     <t xml:space="preserve">0.174827292561531</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.175803989171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185473188757896</t>
+    <t xml:space="preserve">0.185473203659058</t>
   </si>
   <si>
     <t xml:space="preserve">0.192114681005478</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">0.188012585043907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195044755935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202174574136734</t>
+    <t xml:space="preserve">0.195044741034508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202174589037895</t>
   </si>
   <si>
     <t xml:space="preserve">0.201979234814644</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.196314439177513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186547562479973</t>
+    <t xml:space="preserve">0.186547547578812</t>
   </si>
   <si>
     <t xml:space="preserve">0.189965963363647</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.188500940799713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180687412619591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185668528079987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195142418146133</t>
+    <t xml:space="preserve">0.180687427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185668542981148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195142403244972</t>
   </si>
   <si>
     <t xml:space="preserve">0.193091362714767</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.182836130261421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184301167726517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183617487549782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183226823806763</t>
+    <t xml:space="preserve">0.184301182627678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183617472648621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183226808905602</t>
   </si>
   <si>
     <t xml:space="preserve">0.182347789406776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181664109230042</t>
+    <t xml:space="preserve">0.181664124131203</t>
   </si>
   <si>
     <t xml:space="preserve">0.181273430585861</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.190258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190454304218292</t>
+    <t xml:space="preserve">0.190454289317131</t>
   </si>
   <si>
     <t xml:space="preserve">0.184887185692787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191333308815956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189477622509003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184789523482323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187817245721817</t>
+    <t xml:space="preserve">0.191333323717117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189477637410164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184789508581161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187817260622978</t>
   </si>
   <si>
     <t xml:space="preserve">0.191821679472923</t>
@@ -58102,7 +58102,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.4586111111</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>322255</v>
@@ -58123,6 +58123,32 @@
         <v>656</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6442476852</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>4400</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>0.045499999076128</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>0.0414999984204769</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>0.045499999076128</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>0.0414999984204769</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>659</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218387618660927</t>
+    <t xml:space="preserve">0.218387603759766</t>
   </si>
   <si>
     <t xml:space="preserve">CIA.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.219950303435326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219657301902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218973621726036</t>
+    <t xml:space="preserve">0.219657316803932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218973606824875</t>
   </si>
   <si>
     <t xml:space="preserve">0.216629564762115</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.215457528829575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21379716694355</t>
+    <t xml:space="preserve">0.213797152042389</t>
   </si>
   <si>
     <t xml:space="preserve">0.204127952456474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199146822094917</t>
+    <t xml:space="preserve">0.199146836996078</t>
   </si>
   <si>
     <t xml:space="preserve">0.204909309744835</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.185570865869522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195240080356598</t>
+    <t xml:space="preserve">0.195240095257759</t>
   </si>
   <si>
     <t xml:space="preserve">0.196216776967049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194361075758934</t>
+    <t xml:space="preserve">0.194361060857773</t>
   </si>
   <si>
     <t xml:space="preserve">0.193384379148483</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.199244499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203639596700668</t>
+    <t xml:space="preserve">0.20363961160183</t>
   </si>
   <si>
     <t xml:space="preserve">0.188696280121803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179417714476585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186742886900902</t>
+    <t xml:space="preserve">0.179417729377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186742901802063</t>
   </si>
   <si>
     <t xml:space="preserve">0.174827292561531</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.175803989171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185473203659058</t>
+    <t xml:space="preserve">0.185473188757896</t>
   </si>
   <si>
     <t xml:space="preserve">0.192114681005478</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">0.188012585043907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195044741034508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202174589037895</t>
+    <t xml:space="preserve">0.195044755935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202174574136734</t>
   </si>
   <si>
     <t xml:space="preserve">0.201979234814644</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.196314439177513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186547547578812</t>
+    <t xml:space="preserve">0.186547562479973</t>
   </si>
   <si>
     <t xml:space="preserve">0.189965963363647</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.188500940799713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180687427520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185668542981148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195142403244972</t>
+    <t xml:space="preserve">0.180687412619591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185668528079987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195142418146133</t>
   </si>
   <si>
     <t xml:space="preserve">0.193091362714767</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.182836130261421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184301182627678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183617472648621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183226808905602</t>
+    <t xml:space="preserve">0.184301167726517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183617487549782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183226823806763</t>
   </si>
   <si>
     <t xml:space="preserve">0.182347789406776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181664124131203</t>
+    <t xml:space="preserve">0.181664109230042</t>
   </si>
   <si>
     <t xml:space="preserve">0.181273430585861</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.190258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190454289317131</t>
+    <t xml:space="preserve">0.190454304218292</t>
   </si>
   <si>
     <t xml:space="preserve">0.184887185692787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191333323717117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189477637410164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184789508581161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187817260622978</t>
+    <t xml:space="preserve">0.191333308815956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189477622509003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184789523482323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187817245721817</t>
   </si>
   <si>
     <t xml:space="preserve">0.191821679472923</t>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218387603759766</t>
+    <t xml:space="preserve">0.218387618660927</t>
   </si>
   <si>
     <t xml:space="preserve">CIA.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.219950303435326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219657316803932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218973606824875</t>
+    <t xml:space="preserve">0.219657301902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218973621726036</t>
   </si>
   <si>
     <t xml:space="preserve">0.216629564762115</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.215457528829575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213797152042389</t>
+    <t xml:space="preserve">0.21379716694355</t>
   </si>
   <si>
     <t xml:space="preserve">0.204127952456474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199146836996078</t>
+    <t xml:space="preserve">0.199146822094917</t>
   </si>
   <si>
     <t xml:space="preserve">0.204909309744835</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.185570865869522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195240095257759</t>
+    <t xml:space="preserve">0.195240080356598</t>
   </si>
   <si>
     <t xml:space="preserve">0.196216776967049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194361060857773</t>
+    <t xml:space="preserve">0.194361075758934</t>
   </si>
   <si>
     <t xml:space="preserve">0.193384379148483</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.199244499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20363961160183</t>
+    <t xml:space="preserve">0.203639596700668</t>
   </si>
   <si>
     <t xml:space="preserve">0.188696280121803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179417729377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186742901802063</t>
+    <t xml:space="preserve">0.179417714476585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186742886900902</t>
   </si>
   <si>
     <t xml:space="preserve">0.174827292561531</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.175803989171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185473188757896</t>
+    <t xml:space="preserve">0.185473203659058</t>
   </si>
   <si>
     <t xml:space="preserve">0.192114681005478</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">0.188012585043907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195044755935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202174574136734</t>
+    <t xml:space="preserve">0.195044741034508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202174589037895</t>
   </si>
   <si>
     <t xml:space="preserve">0.201979234814644</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.196314439177513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186547562479973</t>
+    <t xml:space="preserve">0.186547547578812</t>
   </si>
   <si>
     <t xml:space="preserve">0.189965963363647</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.188500940799713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180687412619591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185668528079987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195142418146133</t>
+    <t xml:space="preserve">0.180687427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185668542981148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195142403244972</t>
   </si>
   <si>
     <t xml:space="preserve">0.193091362714767</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.182836130261421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184301167726517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183617487549782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183226823806763</t>
+    <t xml:space="preserve">0.184301182627678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183617472648621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183226808905602</t>
   </si>
   <si>
     <t xml:space="preserve">0.182347789406776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181664109230042</t>
+    <t xml:space="preserve">0.181664124131203</t>
   </si>
   <si>
     <t xml:space="preserve">0.181273430585861</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.190258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190454304218292</t>
+    <t xml:space="preserve">0.190454289317131</t>
   </si>
   <si>
     <t xml:space="preserve">0.184887185692787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191333308815956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189477622509003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184789523482323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187817245721817</t>
+    <t xml:space="preserve">0.191333323717117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189477637410164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184789508581161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187817260622978</t>
   </si>
   <si>
     <t xml:space="preserve">0.191821679472923</t>
@@ -58128,7 +58128,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6442476852</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>4400</v>
@@ -58149,6 +58149,32 @@
         <v>659</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.5059490741</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>105866</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>0.045499999076128</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>0.0410000011324883</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>0.0425000004470348</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>0.0410000011324883</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>663</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -58154,7 +58154,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.5059490741</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>105866</v>
@@ -58175,6 +58175,32 @@
         <v>663</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6270138889</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>24219</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>0.0450000017881393</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>0.0405000001192093</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>0.0405000001192093</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>0.0445000007748604</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218387618660927</t>
+    <t xml:space="preserve">0.218387603759766</t>
   </si>
   <si>
     <t xml:space="preserve">CIA.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.219950303435326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219657301902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218973621726036</t>
+    <t xml:space="preserve">0.219657316803932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218973606824875</t>
   </si>
   <si>
     <t xml:space="preserve">0.216629564762115</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.215457528829575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21379716694355</t>
+    <t xml:space="preserve">0.213797152042389</t>
   </si>
   <si>
     <t xml:space="preserve">0.204127952456474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199146822094917</t>
+    <t xml:space="preserve">0.199146836996078</t>
   </si>
   <si>
     <t xml:space="preserve">0.204909309744835</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.185570865869522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195240080356598</t>
+    <t xml:space="preserve">0.195240095257759</t>
   </si>
   <si>
     <t xml:space="preserve">0.196216776967049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194361075758934</t>
+    <t xml:space="preserve">0.194361060857773</t>
   </si>
   <si>
     <t xml:space="preserve">0.193384379148483</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.199244499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203639596700668</t>
+    <t xml:space="preserve">0.20363961160183</t>
   </si>
   <si>
     <t xml:space="preserve">0.188696280121803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179417714476585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186742886900902</t>
+    <t xml:space="preserve">0.179417729377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186742901802063</t>
   </si>
   <si>
     <t xml:space="preserve">0.174827292561531</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.175803989171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185473203659058</t>
+    <t xml:space="preserve">0.185473188757896</t>
   </si>
   <si>
     <t xml:space="preserve">0.192114681005478</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">0.188012585043907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195044741034508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202174589037895</t>
+    <t xml:space="preserve">0.195044755935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202174574136734</t>
   </si>
   <si>
     <t xml:space="preserve">0.201979234814644</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.196314439177513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186547547578812</t>
+    <t xml:space="preserve">0.186547562479973</t>
   </si>
   <si>
     <t xml:space="preserve">0.189965963363647</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.188500940799713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180687427520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185668542981148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195142403244972</t>
+    <t xml:space="preserve">0.180687412619591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185668528079987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195142418146133</t>
   </si>
   <si>
     <t xml:space="preserve">0.193091362714767</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.182836130261421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184301182627678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183617472648621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183226808905602</t>
+    <t xml:space="preserve">0.184301167726517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183617487549782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183226823806763</t>
   </si>
   <si>
     <t xml:space="preserve">0.182347789406776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181664124131203</t>
+    <t xml:space="preserve">0.181664109230042</t>
   </si>
   <si>
     <t xml:space="preserve">0.181273430585861</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.190258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190454289317131</t>
+    <t xml:space="preserve">0.190454304218292</t>
   </si>
   <si>
     <t xml:space="preserve">0.184887185692787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191333323717117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189477637410164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184789508581161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187817260622978</t>
+    <t xml:space="preserve">0.191333308815956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189477622509003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184789523482323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187817245721817</t>
   </si>
   <si>
     <t xml:space="preserve">0.191821679472923</t>
@@ -58180,7 +58180,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6270138889</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>24219</v>
@@ -58201,6 +58201,32 @@
         <v>656</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6007986111</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>60700</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>0.0405000001192093</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>0.0414999984204769</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>659</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -58206,7 +58206,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.6007986111</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>60700</v>
@@ -58227,6 +58227,32 @@
         <v>659</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.4136805556</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>28152</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>661</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218387603759766</t>
+    <t xml:space="preserve">0.218387618660927</t>
   </si>
   <si>
     <t xml:space="preserve">CIA.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.219950303435326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219657316803932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218973606824875</t>
+    <t xml:space="preserve">0.219657301902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218973621726036</t>
   </si>
   <si>
     <t xml:space="preserve">0.216629564762115</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.215457528829575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213797152042389</t>
+    <t xml:space="preserve">0.21379716694355</t>
   </si>
   <si>
     <t xml:space="preserve">0.204127952456474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199146836996078</t>
+    <t xml:space="preserve">0.199146822094917</t>
   </si>
   <si>
     <t xml:space="preserve">0.204909309744835</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.185570865869522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195240095257759</t>
+    <t xml:space="preserve">0.195240080356598</t>
   </si>
   <si>
     <t xml:space="preserve">0.196216776967049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194361060857773</t>
+    <t xml:space="preserve">0.194361075758934</t>
   </si>
   <si>
     <t xml:space="preserve">0.193384379148483</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.199244499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20363961160183</t>
+    <t xml:space="preserve">0.203639596700668</t>
   </si>
   <si>
     <t xml:space="preserve">0.188696280121803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179417729377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186742901802063</t>
+    <t xml:space="preserve">0.179417714476585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186742886900902</t>
   </si>
   <si>
     <t xml:space="preserve">0.174827292561531</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.175803989171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185473188757896</t>
+    <t xml:space="preserve">0.185473203659058</t>
   </si>
   <si>
     <t xml:space="preserve">0.192114681005478</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">0.188012585043907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195044755935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202174574136734</t>
+    <t xml:space="preserve">0.195044741034508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202174589037895</t>
   </si>
   <si>
     <t xml:space="preserve">0.201979234814644</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.196314439177513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186547562479973</t>
+    <t xml:space="preserve">0.186547547578812</t>
   </si>
   <si>
     <t xml:space="preserve">0.189965963363647</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.188500940799713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180687412619591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185668528079987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195142418146133</t>
+    <t xml:space="preserve">0.180687427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185668542981148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195142403244972</t>
   </si>
   <si>
     <t xml:space="preserve">0.193091362714767</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.182836130261421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184301167726517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183617487549782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183226823806763</t>
+    <t xml:space="preserve">0.184301182627678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183617472648621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183226808905602</t>
   </si>
   <si>
     <t xml:space="preserve">0.182347789406776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181664109230042</t>
+    <t xml:space="preserve">0.181664124131203</t>
   </si>
   <si>
     <t xml:space="preserve">0.181273430585861</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.190258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190454304218292</t>
+    <t xml:space="preserve">0.190454289317131</t>
   </si>
   <si>
     <t xml:space="preserve">0.184887185692787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191333308815956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189477622509003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184789523482323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187817245721817</t>
+    <t xml:space="preserve">0.191333323717117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189477637410164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184789508581161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187817260622978</t>
   </si>
   <si>
     <t xml:space="preserve">0.191821679472923</t>
@@ -58232,27 +58232,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.4136805556</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
-        <v>28152</v>
+        <v>124808</v>
       </c>
       <c r="C2149" t="n">
         <v>0.0419999994337559</v>
       </c>
       <c r="D2149" t="n">
-        <v>0.0419999994337559</v>
+        <v>0.0414999984204769</v>
       </c>
       <c r="E2149" t="n">
         <v>0.0419999994337559</v>
       </c>
       <c r="F2149" t="n">
+        <v>0.0414999984204769</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>659</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>28152</v>
+      </c>
+      <c r="C2150" t="n">
         <v>0.0419999994337559</v>
       </c>
-      <c r="G2149" t="s">
+      <c r="D2150" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="G2150" t="s">
         <v>661</v>
       </c>
-      <c r="H2149" t="s">
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6084490741</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>7658</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>661</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218387618660927</t>
+    <t xml:space="preserve">0.218387603759766</t>
   </si>
   <si>
     <t xml:space="preserve">CIA.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.219950303435326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219657301902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218973621726036</t>
+    <t xml:space="preserve">0.219657316803932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218973606824875</t>
   </si>
   <si>
     <t xml:space="preserve">0.216629564762115</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.215457528829575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21379716694355</t>
+    <t xml:space="preserve">0.213797152042389</t>
   </si>
   <si>
     <t xml:space="preserve">0.204127952456474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199146822094917</t>
+    <t xml:space="preserve">0.199146836996078</t>
   </si>
   <si>
     <t xml:space="preserve">0.204909309744835</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.185570865869522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195240080356598</t>
+    <t xml:space="preserve">0.195240095257759</t>
   </si>
   <si>
     <t xml:space="preserve">0.196216776967049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194361075758934</t>
+    <t xml:space="preserve">0.194361060857773</t>
   </si>
   <si>
     <t xml:space="preserve">0.193384379148483</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.199244499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203639596700668</t>
+    <t xml:space="preserve">0.20363961160183</t>
   </si>
   <si>
     <t xml:space="preserve">0.188696280121803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179417714476585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186742886900902</t>
+    <t xml:space="preserve">0.179417729377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186742901802063</t>
   </si>
   <si>
     <t xml:space="preserve">0.174827292561531</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.175803989171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185473203659058</t>
+    <t xml:space="preserve">0.185473188757896</t>
   </si>
   <si>
     <t xml:space="preserve">0.192114681005478</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">0.188012585043907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195044741034508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202174589037895</t>
+    <t xml:space="preserve">0.195044755935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202174574136734</t>
   </si>
   <si>
     <t xml:space="preserve">0.201979234814644</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.196314439177513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186547547578812</t>
+    <t xml:space="preserve">0.186547562479973</t>
   </si>
   <si>
     <t xml:space="preserve">0.189965963363647</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.188500940799713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180687427520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185668542981148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195142403244972</t>
+    <t xml:space="preserve">0.180687412619591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185668528079987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195142418146133</t>
   </si>
   <si>
     <t xml:space="preserve">0.193091362714767</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.182836130261421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184301182627678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183617472648621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183226808905602</t>
+    <t xml:space="preserve">0.184301167726517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183617487549782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183226823806763</t>
   </si>
   <si>
     <t xml:space="preserve">0.182347789406776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181664124131203</t>
+    <t xml:space="preserve">0.181664109230042</t>
   </si>
   <si>
     <t xml:space="preserve">0.181273430585861</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.190258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190454289317131</t>
+    <t xml:space="preserve">0.190454304218292</t>
   </si>
   <si>
     <t xml:space="preserve">0.184887185692787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191333323717117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189477637410164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184789508581161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187817260622978</t>
+    <t xml:space="preserve">0.191333308815956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189477622509003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184789523482323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187817245721817</t>
   </si>
   <si>
     <t xml:space="preserve">0.191821679472923</t>
@@ -58284,7 +58284,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6084490741</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>7658</v>
@@ -58305,6 +58305,32 @@
         <v>661</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.5930671296</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>34000</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>0.0434999987483025</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>0.0430000014603138</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>0.0430000014603138</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>0.0434999987483025</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218387603759766</t>
+    <t xml:space="preserve">0.218387618660927</t>
   </si>
   <si>
     <t xml:space="preserve">CIA.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.219950303435326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219657316803932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218973606824875</t>
+    <t xml:space="preserve">0.219657301902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218973621726036</t>
   </si>
   <si>
     <t xml:space="preserve">0.216629564762115</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.215457528829575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213797152042389</t>
+    <t xml:space="preserve">0.21379716694355</t>
   </si>
   <si>
     <t xml:space="preserve">0.204127952456474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199146836996078</t>
+    <t xml:space="preserve">0.199146822094917</t>
   </si>
   <si>
     <t xml:space="preserve">0.204909309744835</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.185570865869522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195240095257759</t>
+    <t xml:space="preserve">0.195240080356598</t>
   </si>
   <si>
     <t xml:space="preserve">0.196216776967049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194361060857773</t>
+    <t xml:space="preserve">0.194361075758934</t>
   </si>
   <si>
     <t xml:space="preserve">0.193384379148483</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.199244499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20363961160183</t>
+    <t xml:space="preserve">0.203639596700668</t>
   </si>
   <si>
     <t xml:space="preserve">0.188696280121803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179417729377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186742901802063</t>
+    <t xml:space="preserve">0.179417714476585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186742886900902</t>
   </si>
   <si>
     <t xml:space="preserve">0.174827292561531</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.175803989171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185473188757896</t>
+    <t xml:space="preserve">0.185473203659058</t>
   </si>
   <si>
     <t xml:space="preserve">0.192114681005478</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">0.188012585043907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195044755935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202174574136734</t>
+    <t xml:space="preserve">0.195044741034508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202174589037895</t>
   </si>
   <si>
     <t xml:space="preserve">0.201979234814644</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.196314439177513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186547562479973</t>
+    <t xml:space="preserve">0.186547547578812</t>
   </si>
   <si>
     <t xml:space="preserve">0.189965963363647</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.188500940799713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180687412619591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185668528079987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195142418146133</t>
+    <t xml:space="preserve">0.180687427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185668542981148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195142403244972</t>
   </si>
   <si>
     <t xml:space="preserve">0.193091362714767</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.182836130261421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184301167726517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183617487549782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183226823806763</t>
+    <t xml:space="preserve">0.184301182627678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183617472648621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183226808905602</t>
   </si>
   <si>
     <t xml:space="preserve">0.182347789406776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181664109230042</t>
+    <t xml:space="preserve">0.181664124131203</t>
   </si>
   <si>
     <t xml:space="preserve">0.181273430585861</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.190258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190454304218292</t>
+    <t xml:space="preserve">0.190454289317131</t>
   </si>
   <si>
     <t xml:space="preserve">0.184887185692787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191333308815956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189477622509003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184789523482323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187817245721817</t>
+    <t xml:space="preserve">0.191333323717117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189477637410164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184789508581161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187817260622978</t>
   </si>
   <si>
     <t xml:space="preserve">0.191821679472923</t>
@@ -58310,7 +58310,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.5930671296</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>34000</v>
@@ -58331,6 +58331,32 @@
         <v>658</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6141319444</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>157117</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>0.0445000007748604</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>0.0434999987483025</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>0.0439999997615814</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218387618660927</t>
+    <t xml:space="preserve">0.218387603759766</t>
   </si>
   <si>
     <t xml:space="preserve">CIA.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.219950303435326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219657301902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218973621726036</t>
+    <t xml:space="preserve">0.219657316803932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218973606824875</t>
   </si>
   <si>
     <t xml:space="preserve">0.216629564762115</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.215457528829575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21379716694355</t>
+    <t xml:space="preserve">0.213797152042389</t>
   </si>
   <si>
     <t xml:space="preserve">0.204127952456474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199146822094917</t>
+    <t xml:space="preserve">0.199146836996078</t>
   </si>
   <si>
     <t xml:space="preserve">0.204909309744835</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.185570865869522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195240080356598</t>
+    <t xml:space="preserve">0.195240095257759</t>
   </si>
   <si>
     <t xml:space="preserve">0.196216776967049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194361075758934</t>
+    <t xml:space="preserve">0.194361060857773</t>
   </si>
   <si>
     <t xml:space="preserve">0.193384379148483</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.199244499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203639596700668</t>
+    <t xml:space="preserve">0.20363961160183</t>
   </si>
   <si>
     <t xml:space="preserve">0.188696280121803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179417714476585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186742886900902</t>
+    <t xml:space="preserve">0.179417729377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186742901802063</t>
   </si>
   <si>
     <t xml:space="preserve">0.174827292561531</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.175803989171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185473203659058</t>
+    <t xml:space="preserve">0.185473188757896</t>
   </si>
   <si>
     <t xml:space="preserve">0.192114681005478</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">0.188012585043907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195044741034508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202174589037895</t>
+    <t xml:space="preserve">0.195044755935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202174574136734</t>
   </si>
   <si>
     <t xml:space="preserve">0.201979234814644</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.196314439177513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186547547578812</t>
+    <t xml:space="preserve">0.186547562479973</t>
   </si>
   <si>
     <t xml:space="preserve">0.189965963363647</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.188500940799713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180687427520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185668542981148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195142403244972</t>
+    <t xml:space="preserve">0.180687412619591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185668528079987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195142418146133</t>
   </si>
   <si>
     <t xml:space="preserve">0.193091362714767</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.182836130261421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184301182627678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183617472648621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183226808905602</t>
+    <t xml:space="preserve">0.184301167726517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183617487549782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183226823806763</t>
   </si>
   <si>
     <t xml:space="preserve">0.182347789406776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181664124131203</t>
+    <t xml:space="preserve">0.181664109230042</t>
   </si>
   <si>
     <t xml:space="preserve">0.181273430585861</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.190258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190454289317131</t>
+    <t xml:space="preserve">0.190454304218292</t>
   </si>
   <si>
     <t xml:space="preserve">0.184887185692787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191333323717117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189477637410164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184789508581161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187817260622978</t>
+    <t xml:space="preserve">0.191333308815956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189477622509003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184789523482323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187817245721817</t>
   </si>
   <si>
     <t xml:space="preserve">0.191821679472923</t>
@@ -58336,7 +58336,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6141319444</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>157117</v>
@@ -58357,6 +58357,32 @@
         <v>654</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.603587963</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>20300</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>0.0439999997615814</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>661</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -58362,7 +58362,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.603587963</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>20300</v>
@@ -58383,6 +58383,32 @@
         <v>661</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.5986111111</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>164761</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>0.045499999076128</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>0.0425000004470348</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>0.0430000014603138</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>665</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218387603759766</t>
+    <t xml:space="preserve">0.218387618660927</t>
   </si>
   <si>
     <t xml:space="preserve">CIA.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.219950303435326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219657316803932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218973606824875</t>
+    <t xml:space="preserve">0.219657301902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218973621726036</t>
   </si>
   <si>
     <t xml:space="preserve">0.216629564762115</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.215457528829575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213797152042389</t>
+    <t xml:space="preserve">0.21379716694355</t>
   </si>
   <si>
     <t xml:space="preserve">0.204127952456474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199146836996078</t>
+    <t xml:space="preserve">0.199146822094917</t>
   </si>
   <si>
     <t xml:space="preserve">0.204909309744835</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.185570865869522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195240095257759</t>
+    <t xml:space="preserve">0.195240080356598</t>
   </si>
   <si>
     <t xml:space="preserve">0.196216776967049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194361060857773</t>
+    <t xml:space="preserve">0.194361075758934</t>
   </si>
   <si>
     <t xml:space="preserve">0.193384379148483</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.199244499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20363961160183</t>
+    <t xml:space="preserve">0.203639596700668</t>
   </si>
   <si>
     <t xml:space="preserve">0.188696280121803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179417729377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186742901802063</t>
+    <t xml:space="preserve">0.179417714476585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186742886900902</t>
   </si>
   <si>
     <t xml:space="preserve">0.174827292561531</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.175803989171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185473188757896</t>
+    <t xml:space="preserve">0.185473203659058</t>
   </si>
   <si>
     <t xml:space="preserve">0.192114681005478</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">0.188012585043907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195044755935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202174574136734</t>
+    <t xml:space="preserve">0.195044741034508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202174589037895</t>
   </si>
   <si>
     <t xml:space="preserve">0.201979234814644</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.196314439177513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186547562479973</t>
+    <t xml:space="preserve">0.186547547578812</t>
   </si>
   <si>
     <t xml:space="preserve">0.189965963363647</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.188500940799713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180687412619591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185668528079987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195142418146133</t>
+    <t xml:space="preserve">0.180687427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185668542981148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195142403244972</t>
   </si>
   <si>
     <t xml:space="preserve">0.193091362714767</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.182836130261421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184301167726517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183617487549782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183226823806763</t>
+    <t xml:space="preserve">0.184301182627678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183617472648621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183226808905602</t>
   </si>
   <si>
     <t xml:space="preserve">0.182347789406776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181664109230042</t>
+    <t xml:space="preserve">0.181664124131203</t>
   </si>
   <si>
     <t xml:space="preserve">0.181273430585861</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.190258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190454304218292</t>
+    <t xml:space="preserve">0.190454289317131</t>
   </si>
   <si>
     <t xml:space="preserve">0.184887185692787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191333308815956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189477622509003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184789523482323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187817245721817</t>
+    <t xml:space="preserve">0.191333323717117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189477637410164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184789508581161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187817260622978</t>
   </si>
   <si>
     <t xml:space="preserve">0.191821679472923</t>
@@ -58388,7 +58388,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.5986111111</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>164761</v>
@@ -58400,7 +58400,7 @@
         <v>0.0425000004470348</v>
       </c>
       <c r="E2155" t="n">
-        <v>0.0419999994337559</v>
+        <v>0.0445000007748604</v>
       </c>
       <c r="F2155" t="n">
         <v>0.0430000014603138</v>
@@ -58409,6 +58409,32 @@
         <v>665</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6438425926</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>143815</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>0.046000000089407</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>0.0434999987483025</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>0.0419999994337559</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>0.046000000089407</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>653</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218387618660927</t>
+    <t xml:space="preserve">0.218387603759766</t>
   </si>
   <si>
     <t xml:space="preserve">CIA.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.219950303435326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219657301902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218973621726036</t>
+    <t xml:space="preserve">0.219657316803932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218973606824875</t>
   </si>
   <si>
     <t xml:space="preserve">0.216629564762115</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.215457528829575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21379716694355</t>
+    <t xml:space="preserve">0.213797152042389</t>
   </si>
   <si>
     <t xml:space="preserve">0.204127952456474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199146822094917</t>
+    <t xml:space="preserve">0.199146836996078</t>
   </si>
   <si>
     <t xml:space="preserve">0.204909309744835</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.185570865869522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195240080356598</t>
+    <t xml:space="preserve">0.195240095257759</t>
   </si>
   <si>
     <t xml:space="preserve">0.196216776967049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194361075758934</t>
+    <t xml:space="preserve">0.194361060857773</t>
   </si>
   <si>
     <t xml:space="preserve">0.193384379148483</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.199244499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203639596700668</t>
+    <t xml:space="preserve">0.20363961160183</t>
   </si>
   <si>
     <t xml:space="preserve">0.188696280121803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179417714476585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186742886900902</t>
+    <t xml:space="preserve">0.179417729377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186742901802063</t>
   </si>
   <si>
     <t xml:space="preserve">0.174827292561531</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.175803989171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185473203659058</t>
+    <t xml:space="preserve">0.185473188757896</t>
   </si>
   <si>
     <t xml:space="preserve">0.192114681005478</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">0.188012585043907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195044741034508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202174589037895</t>
+    <t xml:space="preserve">0.195044755935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202174574136734</t>
   </si>
   <si>
     <t xml:space="preserve">0.201979234814644</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.196314439177513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186547547578812</t>
+    <t xml:space="preserve">0.186547562479973</t>
   </si>
   <si>
     <t xml:space="preserve">0.189965963363647</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.188500940799713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180687427520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185668542981148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195142403244972</t>
+    <t xml:space="preserve">0.180687412619591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185668528079987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195142418146133</t>
   </si>
   <si>
     <t xml:space="preserve">0.193091362714767</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.182836130261421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184301182627678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183617472648621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183226808905602</t>
+    <t xml:space="preserve">0.184301167726517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183617487549782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183226823806763</t>
   </si>
   <si>
     <t xml:space="preserve">0.182347789406776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181664124131203</t>
+    <t xml:space="preserve">0.181664109230042</t>
   </si>
   <si>
     <t xml:space="preserve">0.181273430585861</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.190258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190454289317131</t>
+    <t xml:space="preserve">0.190454304218292</t>
   </si>
   <si>
     <t xml:space="preserve">0.184887185692787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191333323717117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189477637410164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184789508581161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187817260622978</t>
+    <t xml:space="preserve">0.191333308815956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189477622509003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184789523482323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187817245721817</t>
   </si>
   <si>
     <t xml:space="preserve">0.191821679472923</t>
@@ -58414,7 +58414,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6438425926</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>143815</v>
@@ -58426,7 +58426,7 @@
         <v>0.0434999987483025</v>
       </c>
       <c r="E2156" t="n">
-        <v>0.0419999994337559</v>
+        <v>0.0445000007748604</v>
       </c>
       <c r="F2156" t="n">
         <v>0.046000000089407</v>
@@ -58435,6 +58435,32 @@
         <v>653</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.5690162037</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>61896</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>0.0480000004172325</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>0.0439999997615814</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>0.0480000004172325</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>0.0439999997615814</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218387603759766</t>
+    <t xml:space="preserve">0.218387618660927</t>
   </si>
   <si>
     <t xml:space="preserve">CIA.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.219950303435326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219657316803932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218973606824875</t>
+    <t xml:space="preserve">0.219657301902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218973621726036</t>
   </si>
   <si>
     <t xml:space="preserve">0.216629564762115</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.215457528829575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213797152042389</t>
+    <t xml:space="preserve">0.21379716694355</t>
   </si>
   <si>
     <t xml:space="preserve">0.204127952456474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199146836996078</t>
+    <t xml:space="preserve">0.199146822094917</t>
   </si>
   <si>
     <t xml:space="preserve">0.204909309744835</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.185570865869522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195240095257759</t>
+    <t xml:space="preserve">0.195240080356598</t>
   </si>
   <si>
     <t xml:space="preserve">0.196216776967049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194361060857773</t>
+    <t xml:space="preserve">0.194361075758934</t>
   </si>
   <si>
     <t xml:space="preserve">0.193384379148483</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.199244499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20363961160183</t>
+    <t xml:space="preserve">0.203639596700668</t>
   </si>
   <si>
     <t xml:space="preserve">0.188696280121803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179417729377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186742901802063</t>
+    <t xml:space="preserve">0.179417714476585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186742886900902</t>
   </si>
   <si>
     <t xml:space="preserve">0.174827292561531</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.175803989171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185473188757896</t>
+    <t xml:space="preserve">0.185473203659058</t>
   </si>
   <si>
     <t xml:space="preserve">0.192114681005478</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">0.188012585043907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195044755935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202174574136734</t>
+    <t xml:space="preserve">0.195044741034508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202174589037895</t>
   </si>
   <si>
     <t xml:space="preserve">0.201979234814644</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.196314439177513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186547562479973</t>
+    <t xml:space="preserve">0.186547547578812</t>
   </si>
   <si>
     <t xml:space="preserve">0.189965963363647</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.188500940799713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180687412619591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185668528079987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195142418146133</t>
+    <t xml:space="preserve">0.180687427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185668542981148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195142403244972</t>
   </si>
   <si>
     <t xml:space="preserve">0.193091362714767</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.182836130261421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184301167726517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183617487549782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183226823806763</t>
+    <t xml:space="preserve">0.184301182627678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183617472648621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183226808905602</t>
   </si>
   <si>
     <t xml:space="preserve">0.182347789406776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181664109230042</t>
+    <t xml:space="preserve">0.181664124131203</t>
   </si>
   <si>
     <t xml:space="preserve">0.181273430585861</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.190258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190454304218292</t>
+    <t xml:space="preserve">0.190454289317131</t>
   </si>
   <si>
     <t xml:space="preserve">0.184887185692787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191333308815956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189477622509003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184789523482323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187817245721817</t>
+    <t xml:space="preserve">0.191333323717117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189477637410164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184789508581161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187817260622978</t>
   </si>
   <si>
     <t xml:space="preserve">0.191821679472923</t>
@@ -58440,7 +58440,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.5690162037</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>61896</v>
@@ -58461,6 +58461,32 @@
         <v>654</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.3636342593</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>13074</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>0.0439999997615814</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>0.0434999987483025</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>0.0480000004172325</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>0.0439999997615814</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218387618660927</t>
+    <t xml:space="preserve">0.218387603759766</t>
   </si>
   <si>
     <t xml:space="preserve">CIA.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.219950303435326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219657301902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218973621726036</t>
+    <t xml:space="preserve">0.219657316803932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218973606824875</t>
   </si>
   <si>
     <t xml:space="preserve">0.216629564762115</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.215457528829575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21379716694355</t>
+    <t xml:space="preserve">0.213797152042389</t>
   </si>
   <si>
     <t xml:space="preserve">0.204127952456474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199146822094917</t>
+    <t xml:space="preserve">0.199146836996078</t>
   </si>
   <si>
     <t xml:space="preserve">0.204909309744835</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.185570865869522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195240080356598</t>
+    <t xml:space="preserve">0.195240095257759</t>
   </si>
   <si>
     <t xml:space="preserve">0.196216776967049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194361075758934</t>
+    <t xml:space="preserve">0.194361060857773</t>
   </si>
   <si>
     <t xml:space="preserve">0.193384379148483</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.199244499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203639596700668</t>
+    <t xml:space="preserve">0.20363961160183</t>
   </si>
   <si>
     <t xml:space="preserve">0.188696280121803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179417714476585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186742886900902</t>
+    <t xml:space="preserve">0.179417729377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186742901802063</t>
   </si>
   <si>
     <t xml:space="preserve">0.174827292561531</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.175803989171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185473203659058</t>
+    <t xml:space="preserve">0.185473188757896</t>
   </si>
   <si>
     <t xml:space="preserve">0.192114681005478</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">0.188012585043907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195044741034508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202174589037895</t>
+    <t xml:space="preserve">0.195044755935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202174574136734</t>
   </si>
   <si>
     <t xml:space="preserve">0.201979234814644</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.196314439177513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186547547578812</t>
+    <t xml:space="preserve">0.186547562479973</t>
   </si>
   <si>
     <t xml:space="preserve">0.189965963363647</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.188500940799713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180687427520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185668542981148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195142403244972</t>
+    <t xml:space="preserve">0.180687412619591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185668528079987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195142418146133</t>
   </si>
   <si>
     <t xml:space="preserve">0.193091362714767</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.182836130261421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184301182627678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183617472648621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183226808905602</t>
+    <t xml:space="preserve">0.184301167726517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183617487549782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183226823806763</t>
   </si>
   <si>
     <t xml:space="preserve">0.182347789406776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181664124131203</t>
+    <t xml:space="preserve">0.181664109230042</t>
   </si>
   <si>
     <t xml:space="preserve">0.181273430585861</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.190258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190454289317131</t>
+    <t xml:space="preserve">0.190454304218292</t>
   </si>
   <si>
     <t xml:space="preserve">0.184887185692787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191333323717117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189477637410164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184789508581161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187817260622978</t>
+    <t xml:space="preserve">0.191333308815956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189477622509003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184789523482323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187817245721817</t>
   </si>
   <si>
     <t xml:space="preserve">0.191821679472923</t>
@@ -58466,7 +58466,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.3636342593</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>13074</v>
@@ -58478,7 +58478,7 @@
         <v>0.0434999987483025</v>
       </c>
       <c r="E2158" t="n">
-        <v>0.0480000004172325</v>
+        <v>0.0434999987483025</v>
       </c>
       <c r="F2158" t="n">
         <v>0.0439999997615814</v>
@@ -58487,6 +58487,32 @@
         <v>654</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6334490741</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>26300</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>0.0469999983906746</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>0.046000000089407</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>0.0469999983906746</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>0.046000000089407</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>653</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -58492,7 +58492,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.6334490741</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>26300</v>
@@ -58513,6 +58513,32 @@
         <v>653</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.5670717593</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>183000</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>0.045499999076128</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>0.0434999987483025</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>0.0469999983906746</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>0.0434999987483025</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -58518,7 +58518,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.5670717593</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>183000</v>
@@ -58530,7 +58530,7 @@
         <v>0.0434999987483025</v>
       </c>
       <c r="E2160" t="n">
-        <v>0.0469999983906746</v>
+        <v>0.045499999076128</v>
       </c>
       <c r="F2160" t="n">
         <v>0.0434999987483025</v>
@@ -58539,6 +58539,32 @@
         <v>658</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.6332523148</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>35000</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>0.0445000007748604</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>0.0445000007748604</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>0.0445000007748604</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>0.0445000007748604</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -58544,7 +58544,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6332523148</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>35000</v>
@@ -58565,6 +58565,32 @@
         <v>656</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6396759259</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>38030</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>0.0469999983906746</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>0.0445000007748604</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>0.0445000007748604</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>0.046000000089407</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>653</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -58570,7 +58570,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6396759259</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>38030</v>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="678">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218387603759766</t>
+    <t xml:space="preserve">0.218387618660927</t>
   </si>
   <si>
     <t xml:space="preserve">CIA.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.219950303435326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219657316803932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218973606824875</t>
+    <t xml:space="preserve">0.219657301902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218973621726036</t>
   </si>
   <si>
     <t xml:space="preserve">0.216629564762115</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.215457528829575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213797152042389</t>
+    <t xml:space="preserve">0.21379716694355</t>
   </si>
   <si>
     <t xml:space="preserve">0.204127952456474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199146836996078</t>
+    <t xml:space="preserve">0.199146822094917</t>
   </si>
   <si>
     <t xml:space="preserve">0.204909309744835</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.185570865869522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195240095257759</t>
+    <t xml:space="preserve">0.195240080356598</t>
   </si>
   <si>
     <t xml:space="preserve">0.196216776967049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194361060857773</t>
+    <t xml:space="preserve">0.194361075758934</t>
   </si>
   <si>
     <t xml:space="preserve">0.193384379148483</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.199244499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20363961160183</t>
+    <t xml:space="preserve">0.203639596700668</t>
   </si>
   <si>
     <t xml:space="preserve">0.188696280121803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179417729377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186742901802063</t>
+    <t xml:space="preserve">0.179417714476585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186742886900902</t>
   </si>
   <si>
     <t xml:space="preserve">0.174827292561531</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.175803989171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185473188757896</t>
+    <t xml:space="preserve">0.185473203659058</t>
   </si>
   <si>
     <t xml:space="preserve">0.192114681005478</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">0.188012585043907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195044755935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202174574136734</t>
+    <t xml:space="preserve">0.195044741034508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202174589037895</t>
   </si>
   <si>
     <t xml:space="preserve">0.201979234814644</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.196314439177513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186547562479973</t>
+    <t xml:space="preserve">0.186547547578812</t>
   </si>
   <si>
     <t xml:space="preserve">0.189965963363647</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.188500940799713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180687412619591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185668528079987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195142418146133</t>
+    <t xml:space="preserve">0.180687427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185668542981148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195142403244972</t>
   </si>
   <si>
     <t xml:space="preserve">0.193091362714767</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.182836130261421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184301167726517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183617487549782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183226823806763</t>
+    <t xml:space="preserve">0.184301182627678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183617472648621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183226808905602</t>
   </si>
   <si>
     <t xml:space="preserve">0.182347789406776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181664109230042</t>
+    <t xml:space="preserve">0.181664124131203</t>
   </si>
   <si>
     <t xml:space="preserve">0.181273430585861</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.190258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190454304218292</t>
+    <t xml:space="preserve">0.190454289317131</t>
   </si>
   <si>
     <t xml:space="preserve">0.184887185692787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191333308815956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189477622509003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184789523482323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187817245721817</t>
+    <t xml:space="preserve">0.191333323717117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189477637410164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184789508581161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187817260622978</t>
   </si>
   <si>
     <t xml:space="preserve">0.191821679472923</t>
@@ -2043,6 +2043,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.0370000004768372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0474999994039536</t>
   </si>
 </sst>
 </file>
@@ -58594,6 +58597,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.2916666667</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>0.046000000089407</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>0.046000000089407</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>0.046000000089407</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>0.046000000089407</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>653</v>
+      </c>
+      <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6494212963</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>59389</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>0.0445000007748604</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>0.0399999991059303</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>0.0445000007748604</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>0.0474999994039536</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>677</v>
+      </c>
+      <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -58625,13 +58625,13 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6494212963</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>59389</v>
       </c>
       <c r="C2164" t="n">
-        <v>0.0445000007748604</v>
+        <v>0.0474999994039536</v>
       </c>
       <c r="D2164" t="n">
         <v>0.0399999991059303</v>
@@ -58646,6 +58646,32 @@
         <v>677</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6441319444</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>169548</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>0.0434999987483025</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>0.0414999984204769</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>0.0414999984204769</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>0.0425000004470348</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>662</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -58651,7 +58651,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.6441319444</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>169548</v>
@@ -58672,6 +58672,32 @@
         <v>662</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.5813773148</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>255880</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>0.0430000014603138</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>0.0399999991059303</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>0.0430000014603138</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>0.0399999991059303</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>660</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="679">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218387618660927</t>
+    <t xml:space="preserve">0.218387603759766</t>
   </si>
   <si>
     <t xml:space="preserve">CIA.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.219950303435326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219657301902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218973621726036</t>
+    <t xml:space="preserve">0.219657316803932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218973606824875</t>
   </si>
   <si>
     <t xml:space="preserve">0.216629564762115</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.215457528829575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21379716694355</t>
+    <t xml:space="preserve">0.213797152042389</t>
   </si>
   <si>
     <t xml:space="preserve">0.204127952456474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199146822094917</t>
+    <t xml:space="preserve">0.199146836996078</t>
   </si>
   <si>
     <t xml:space="preserve">0.204909309744835</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.185570865869522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195240080356598</t>
+    <t xml:space="preserve">0.195240095257759</t>
   </si>
   <si>
     <t xml:space="preserve">0.196216776967049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194361075758934</t>
+    <t xml:space="preserve">0.194361060857773</t>
   </si>
   <si>
     <t xml:space="preserve">0.193384379148483</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.199244499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203639596700668</t>
+    <t xml:space="preserve">0.20363961160183</t>
   </si>
   <si>
     <t xml:space="preserve">0.188696280121803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179417714476585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186742886900902</t>
+    <t xml:space="preserve">0.179417729377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186742901802063</t>
   </si>
   <si>
     <t xml:space="preserve">0.174827292561531</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.175803989171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185473203659058</t>
+    <t xml:space="preserve">0.185473188757896</t>
   </si>
   <si>
     <t xml:space="preserve">0.192114681005478</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">0.188012585043907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195044741034508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202174589037895</t>
+    <t xml:space="preserve">0.195044755935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202174574136734</t>
   </si>
   <si>
     <t xml:space="preserve">0.201979234814644</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.196314439177513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186547547578812</t>
+    <t xml:space="preserve">0.186547562479973</t>
   </si>
   <si>
     <t xml:space="preserve">0.189965963363647</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.188500940799713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180687427520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185668542981148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195142403244972</t>
+    <t xml:space="preserve">0.180687412619591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185668528079987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195142418146133</t>
   </si>
   <si>
     <t xml:space="preserve">0.193091362714767</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.182836130261421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184301182627678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183617472648621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183226808905602</t>
+    <t xml:space="preserve">0.184301167726517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183617487549782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183226823806763</t>
   </si>
   <si>
     <t xml:space="preserve">0.182347789406776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181664124131203</t>
+    <t xml:space="preserve">0.181664109230042</t>
   </si>
   <si>
     <t xml:space="preserve">0.181273430585861</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.190258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190454289317131</t>
+    <t xml:space="preserve">0.190454304218292</t>
   </si>
   <si>
     <t xml:space="preserve">0.184887185692787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191333323717117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189477637410164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184789508581161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187817260622978</t>
+    <t xml:space="preserve">0.191333308815956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189477622509003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184789523482323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187817245721817</t>
   </si>
   <si>
     <t xml:space="preserve">0.191821679472923</t>
@@ -2046,6 +2046,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.0474999994039536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0364999994635582</t>
   </si>
 </sst>
 </file>
@@ -58677,7 +58680,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.5813773148</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>255880</v>
@@ -58698,6 +58701,32 @@
         <v>660</v>
       </c>
       <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.6494907407</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>543049</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>0.0395000018179417</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>0.0359999984502792</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>0.0370000004768372</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>0.0364999994635582</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>678</v>
+      </c>
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218387603759766</t>
+    <t xml:space="preserve">0.218387618660927</t>
   </si>
   <si>
     <t xml:space="preserve">CIA.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.219950303435326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219657316803932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218973606824875</t>
+    <t xml:space="preserve">0.219657301902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218973621726036</t>
   </si>
   <si>
     <t xml:space="preserve">0.216629564762115</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.215457528829575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213797152042389</t>
+    <t xml:space="preserve">0.21379716694355</t>
   </si>
   <si>
     <t xml:space="preserve">0.204127952456474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199146836996078</t>
+    <t xml:space="preserve">0.199146822094917</t>
   </si>
   <si>
     <t xml:space="preserve">0.204909309744835</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.185570865869522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195240095257759</t>
+    <t xml:space="preserve">0.195240080356598</t>
   </si>
   <si>
     <t xml:space="preserve">0.196216776967049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194361060857773</t>
+    <t xml:space="preserve">0.194361075758934</t>
   </si>
   <si>
     <t xml:space="preserve">0.193384379148483</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.199244499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20363961160183</t>
+    <t xml:space="preserve">0.203639596700668</t>
   </si>
   <si>
     <t xml:space="preserve">0.188696280121803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179417729377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186742901802063</t>
+    <t xml:space="preserve">0.179417714476585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186742886900902</t>
   </si>
   <si>
     <t xml:space="preserve">0.174827292561531</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.175803989171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185473188757896</t>
+    <t xml:space="preserve">0.185473203659058</t>
   </si>
   <si>
     <t xml:space="preserve">0.192114681005478</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">0.188012585043907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195044755935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202174574136734</t>
+    <t xml:space="preserve">0.195044741034508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202174589037895</t>
   </si>
   <si>
     <t xml:space="preserve">0.201979234814644</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.196314439177513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186547562479973</t>
+    <t xml:space="preserve">0.186547547578812</t>
   </si>
   <si>
     <t xml:space="preserve">0.189965963363647</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.188500940799713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180687412619591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185668528079987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195142418146133</t>
+    <t xml:space="preserve">0.180687427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185668542981148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195142403244972</t>
   </si>
   <si>
     <t xml:space="preserve">0.193091362714767</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.182836130261421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184301167726517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183617487549782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183226823806763</t>
+    <t xml:space="preserve">0.184301182627678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183617472648621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183226808905602</t>
   </si>
   <si>
     <t xml:space="preserve">0.182347789406776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181664109230042</t>
+    <t xml:space="preserve">0.181664124131203</t>
   </si>
   <si>
     <t xml:space="preserve">0.181273430585861</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.190258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190454304218292</t>
+    <t xml:space="preserve">0.190454289317131</t>
   </si>
   <si>
     <t xml:space="preserve">0.184887185692787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191333308815956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189477622509003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184789523482323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187817245721817</t>
+    <t xml:space="preserve">0.191333323717117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189477637410164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184789508581161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187817260622978</t>
   </si>
   <si>
     <t xml:space="preserve">0.191821679472923</t>
@@ -58706,7 +58706,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.6494907407</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>543049</v>

--- a/data/CIA.MI.xlsx
+++ b/data/CIA.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218387603759766</t>
+    <t xml:space="preserve">0.218387618660927</t>
   </si>
   <si>
     <t xml:space="preserve">CIA.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.219950303435326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219657316803932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218973606824875</t>
+    <t xml:space="preserve">0.219657301902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218973621726036</t>
   </si>
   <si>
     <t xml:space="preserve">0.216629564762115</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.215457528829575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213797152042389</t>
+    <t xml:space="preserve">0.21379716694355</t>
   </si>
   <si>
     <t xml:space="preserve">0.204127952456474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199146836996078</t>
+    <t xml:space="preserve">0.199146822094917</t>
   </si>
   <si>
     <t xml:space="preserve">0.204909309744835</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.185570865869522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195240095257759</t>
+    <t xml:space="preserve">0.195240080356598</t>
   </si>
   <si>
     <t xml:space="preserve">0.196216776967049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194361060857773</t>
+    <t xml:space="preserve">0.194361075758934</t>
   </si>
   <si>
     <t xml:space="preserve">0.193384379148483</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.199244499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20363961160183</t>
+    <t xml:space="preserve">0.203639596700668</t>
   </si>
   <si>
     <t xml:space="preserve">0.188696280121803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179417729377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186742901802063</t>
+    <t xml:space="preserve">0.179417714476585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186742886900902</t>
   </si>
   <si>
     <t xml:space="preserve">0.174827292561531</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.175803989171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185473188757896</t>
+    <t xml:space="preserve">0.185473203659058</t>
   </si>
   <si>
     <t xml:space="preserve">0.192114681005478</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">0.188012585043907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195044755935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202174574136734</t>
+    <t xml:space="preserve">0.195044741034508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202174589037895</t>
   </si>
   <si>
     <t xml:space="preserve">0.201979234814644</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.196314439177513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186547562479973</t>
+    <t xml:space="preserve">0.186547547578812</t>
   </si>
   <si>
     <t xml:space="preserve">0.189965963363647</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.188500940799713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180687412619591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185668528079987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195142418146133</t>
+    <t xml:space="preserve">0.180687427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185668542981148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195142403244972</t>
   </si>
   <si>
     <t xml:space="preserve">0.193091362714767</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.182836130261421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184301167726517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183617487549782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183226823806763</t>
+    <t xml:space="preserve">0.184301182627678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183617472648621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183226808905602</t>
   </si>
   <si>
     <t xml:space="preserve">0.182347789406776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181664109230042</t>
+    <t xml:space="preserve">0.181664124131203</t>
   </si>
   <si>
     <t xml:space="preserve">0.181273430585861</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.190258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190454304218292</t>
+    <t xml:space="preserve">0.190454289317131</t>
   </si>
   <si>
     <t xml:space="preserve">0.184887185692787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191333308815956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189477622509003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184789523482323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187817245721817</t>
+    <t xml:space="preserve">0.191333323717117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189477637410164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184789508581161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187817260622978</t>
   </si>
   <si>
     <t xml:space="preserve">0.191821679472923</t>
